--- a/DATA_goal/Junction_Flooding_362.xlsx
+++ b/DATA_goal/Junction_Flooding_362.xlsx
@@ -443,7 +443,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
@@ -655,103 +655,103 @@
         <v>37499.00694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.52</v>
+        <v>5.24</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.16</v>
+        <v>1.61</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="F2" s="4" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="G2" s="4" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="H2" s="4" t="n">
+        <v>5.49</v>
+      </c>
+      <c r="I2" s="4" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="J2" s="4" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="K2" s="4" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="L2" s="4" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="M2" s="4" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="N2" s="4" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="O2" s="4" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="P2" s="4" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q2" s="4" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="R2" s="4" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="S2" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>20.09</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Y2" s="4" t="n">
         <v>0.25</v>
       </c>
-      <c r="F2" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="G2" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="H2" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="I2" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="J2" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="K2" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="L2" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="M2" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="N2" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="O2" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="P2" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="Q2" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="R2" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S2" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="T2" s="4" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="U2" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="V2" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="W2" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>0.02</v>
-      </c>
       <c r="Z2" s="4" t="n">
-        <v>0.2</v>
+        <v>1.98</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.12</v>
+        <v>1.15</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.67</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.09</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.31</v>
+        <v>3.13</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.29</v>
+        <v>2.87</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0.31</v>
+        <v>3.13</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.04</v>
+        <v>0.45</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.14</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>37499.01388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.65</v>
+        <v>6.46</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.41</v>
+        <v>4.07</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>1.02</v>
+        <v>10.16</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0.91</v>
+        <v>9.08</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.46</v>
+        <v>4.64</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>1.31</v>
+        <v>13.12</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.57</v>
+        <v>5.7</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.28</v>
+        <v>2.78</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.52</v>
+        <v>5.18</v>
       </c>
       <c r="L3" s="4" t="n">
+        <v>4.21</v>
+      </c>
+      <c r="M3" s="4" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="N3" s="4" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="O3" s="4" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="P3" s="4" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="Q3" s="4" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="R3" s="4" t="n">
         <v>0.42</v>
       </c>
-      <c r="M3" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="N3" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="O3" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="P3" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="Q3" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="R3" s="4" t="n">
-        <v>0.04</v>
-      </c>
       <c r="S3" s="4" t="n">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>5.52</v>
+        <v>55.17</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>1.14</v>
+        <v>11.39</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.42</v>
+        <v>4.15</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>0.79</v>
+        <v>7.89</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.37</v>
+        <v>3.73</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.05</v>
+        <v>0.54</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>0.67</v>
+        <v>6.66</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.33</v>
+        <v>3.28</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.26</v>
+        <v>2.61</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.32</v>
+        <v>3.18</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.55</v>
+        <v>5.45</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.11</v>
+        <v>1.13</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>1.1</v>
+        <v>11.01</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.19</v>
+        <v>1.88</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.44</v>
+        <v>4.42</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>37499.02083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.7</v>
+        <v>6.98</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.48</v>
+        <v>4.8</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.01</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>1.27</v>
+        <v>12.7</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1.1</v>
+        <v>10.98</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.53</v>
+        <v>5.27</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>1.82</v>
+        <v>18.16</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.71</v>
+        <v>7.07</v>
       </c>
       <c r="J4" s="4" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <v>5.23</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>5.27</v>
+      </c>
+      <c r="N4" s="4" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="O4" s="4" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>7.29</v>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="R4" s="4" t="n">
         <v>0.34</v>
       </c>
-      <c r="K4" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="L4" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="M4" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="N4" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="O4" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="P4" s="4" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="Q4" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="R4" s="4" t="n">
-        <v>0.03</v>
-      </c>
       <c r="S4" s="4" t="n">
-        <v>0.01</v>
+        <v>0.09</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>6.68</v>
+        <v>66.79000000000001</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>1.36</v>
+        <v>13.63</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.47</v>
+        <v>4.73</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>0.93</v>
+        <v>9.32</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.46</v>
+        <v>4.62</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.06</v>
+        <v>0.64</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>0.91</v>
+        <v>9.08</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.39</v>
+        <v>3.94</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.33</v>
+        <v>3.27</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.39</v>
+        <v>3.91</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.61</v>
+        <v>6.15</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.72</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>1.61</v>
+        <v>16.12</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.24</v>
+        <v>2.37</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.54</v>
+        <v>5.41</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>37499.02777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.01</v>
+        <v>10.15</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.73</v>
+        <v>7.32</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>2.02</v>
+        <v>20.24</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>1.71</v>
+        <v>17.1</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.78</v>
+        <v>7.84</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>2.81</v>
+        <v>28.08</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.13</v>
+        <v>11.25</v>
       </c>
       <c r="J5" s="4" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>8.24</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>8.49</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>7.28</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>6.08</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>106.92</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>20.97</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>7.11</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <v>6.11</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>5.21</v>
+      </c>
+      <c r="AC5" s="4" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="AD5" s="4" t="n">
+        <v>9.140000000000001</v>
+      </c>
+      <c r="AE5" s="4" t="n">
         <v>0.52</v>
       </c>
-      <c r="K5" s="4" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="T5" s="4" t="n">
-        <v>10.69</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Z5" s="4" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="AA5" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="AB5" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="AC5" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="AD5" s="4" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="AE5" s="4" t="n">
-        <v>0.05</v>
-      </c>
       <c r="AF5" s="4" t="n">
-        <v>2.51</v>
+        <v>25.15</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.38</v>
+        <v>3.8</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.85</v>
+        <v>8.51</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_362.xlsx
+++ b/DATA_goal/Junction_Flooding_362.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>37499.00694444445</v>
+        <v>45043.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>5.24</v>
+        <v>13.798</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.61</v>
+        <v>9.137</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0</v>
+        <v>3.527</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>2.48</v>
+        <v>29.879</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>3.05</v>
+        <v>22.444</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>2.52</v>
+        <v>10.657</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>5.49</v>
+        <v>31.967</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.55</v>
+        <v>16.87</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>6.742</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>4.02</v>
+        <v>10.011</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.07</v>
+        <v>11.733</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>12.516</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>3.497</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.87</v>
+        <v>10.903</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>2.75</v>
+        <v>14.966</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.11</v>
+        <v>9.704000000000001</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.51</v>
+        <v>3.059</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.06</v>
+        <v>1.672</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>20.09</v>
+        <v>158.575</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>4.8</v>
+        <v>30.182</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>2.37</v>
+        <v>10.064</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>3.89</v>
+        <v>19.331</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.03</v>
+        <v>9.888999999999999</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.25</v>
+        <v>2.87</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.98</v>
+        <v>17.102</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.15</v>
+        <v>8.888999999999999</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.67</v>
+        <v>8.15</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.673999999999999</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>3.13</v>
+        <v>12.058</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.87</v>
+        <v>3.072</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>3.13</v>
+        <v>28.934</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.45</v>
+        <v>5.407</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.43</v>
+        <v>12.581</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>37499.01388888889</v>
+        <v>45043.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>6.46</v>
+        <v>5.654</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>4.07</v>
+        <v>3.745</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.02</v>
+        <v>1.4</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>10.16</v>
+        <v>12.516</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>9.08</v>
+        <v>9.132</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>4.64</v>
+        <v>4.328</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>13.12</v>
+        <v>19.479</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>5.7</v>
+        <v>6.981</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>2.78</v>
+        <v>2.808</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>5.18</v>
+        <v>3.898</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>4.21</v>
+        <v>4.934</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>4.18</v>
+        <v>5.327</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>1.34</v>
+        <v>1.455</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>3.63</v>
+        <v>4.512</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>6.25</v>
+        <v>6.2</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>3.16</v>
+        <v>4.24</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.42</v>
+        <v>1.36</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.06</v>
+        <v>0.705</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>55.17</v>
+        <v>61.371</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>11.39</v>
+        <v>12.791</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>4.15</v>
+        <v>4.164</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>7.89</v>
+        <v>8.090999999999999</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>3.73</v>
+        <v>4.121</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.54</v>
+        <v>1.213</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>6.66</v>
+        <v>9.545999999999999</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>3.28</v>
+        <v>3.678</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>2.61</v>
+        <v>3.483</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>3.18</v>
+        <v>4.107</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>5.45</v>
+        <v>5.007</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.13</v>
+        <v>1.198</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>11.01</v>
+        <v>18.384</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>1.88</v>
+        <v>2.154</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>4.42</v>
+        <v>5.208</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>37499.02083333334</v>
+        <v>45043.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>6.98</v>
+        <v>8.552</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>4.8</v>
+        <v>6.135</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>1.041</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>12.7</v>
+        <v>18.823</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>10.98</v>
+        <v>14.722</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>5.27</v>
+        <v>6.646</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>18.16</v>
+        <v>25.444</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>7.07</v>
+        <v>10.471</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>3.36</v>
+        <v>4.464</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>5.63</v>
+        <v>6.464</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>5.23</v>
+        <v>7.508</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>5.27</v>
+        <v>8.042</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>1.57</v>
+        <v>2.172</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>4.56</v>
+        <v>6.767</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>7.29</v>
+        <v>9.460000000000001</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>3.86</v>
+        <v>5.976</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.34</v>
+        <v>0.93</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.582</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>66.79000000000001</v>
+        <v>95.65900000000001</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>13.63</v>
+        <v>18.876</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>4.73</v>
+        <v>6.247</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>9.32</v>
+        <v>12.366</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>4.62</v>
+        <v>6.476</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.64</v>
+        <v>1.298</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>9.08</v>
+        <v>12.413</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>3.94</v>
+        <v>5.517</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>3.27</v>
+        <v>5.026</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>3.91</v>
+        <v>5.91</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>6.15</v>
+        <v>7.782</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.72</v>
+        <v>0.746</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>16.12</v>
+        <v>23.209</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>2.37</v>
+        <v>3.397</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>5.41</v>
+        <v>7.809</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>37499.02777777778</v>
+        <v>45043.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>10.15</v>
+        <v>16.73</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>7.32</v>
+        <v>12.38</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.2</v>
+        <v>1.11</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>20.24</v>
+        <v>36.59</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>17.1</v>
+        <v>29.61</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>7.84</v>
+        <v>13.1</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>28.08</v>
+        <v>48.87</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>11.25</v>
+        <v>20.36</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>5.2</v>
+        <v>8.970000000000001</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>8.199999999999999</v>
+        <v>13.22</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>8.24</v>
+        <v>14.66</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>8.49</v>
+        <v>15.6</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>2.42</v>
+        <v>4.23</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>7.28</v>
+        <v>13.16</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>11</v>
+        <v>18.66</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>6.08</v>
+        <v>11.19</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.32</v>
+        <v>0.78</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.2</v>
+        <v>0.73</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>106.92</v>
+        <v>192.96</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>20.97</v>
+        <v>36.74</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>7.11</v>
+        <v>12.15</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>14.25</v>
+        <v>24.58</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>7.3</v>
+        <v>12.9</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.99</v>
+        <v>2.03</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>13.9</v>
+        <v>24.15</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>6.11</v>
+        <v>10.73</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>5.21</v>
+        <v>9.56</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>6.18</v>
+        <v>11.24</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>9.140000000000001</v>
+        <v>15.33</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.52</v>
+        <v>0.54</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>25.15</v>
+        <v>44.44</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>3.8</v>
+        <v>6.79</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>8.51</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>37499.03472222222</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>9.550000000000001</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>6.95</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>19.33</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>16.27</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>7.42</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>28.38</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>10.74</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>4.96</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>7.73</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>7.87</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>8.109999999999999</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>6.96</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>10.44</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>101.25</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>19.99</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>6.73</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>13.58</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>6.97</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>13.83</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>5.81</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>4.97</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>8.630000000000001</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>25.58</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>3.63</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>8.109999999999999</v>
+        <v>15.19</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_362.xlsx
+++ b/DATA_goal/Junction_Flooding_362.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,22 +448,22 @@
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="8" customWidth="1" min="11" max="11"/>
-    <col width="8" customWidth="1" min="12" max="12"/>
-    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="8" customWidth="1" min="15" max="15"/>
-    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
     <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
     <col width="9" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
@@ -471,11 +471,11 @@
     <col width="7" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="8" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,418 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45043.50694444445</v>
+        <v>37499.00694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>13.798</v>
+        <v>5.237</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>9.137</v>
+        <v>1.607</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.527</v>
+        <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>29.879</v>
+        <v>2.478</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>22.444</v>
+        <v>3.053</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>10.657</v>
+        <v>2.519</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>31.967</v>
+        <v>5.488</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>16.87</v>
+        <v>1.554</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>6.742</v>
+        <v>0.9409999999999999</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>10.011</v>
+        <v>4.022</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>11.733</v>
+        <v>1.069</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>12.516</v>
+        <v>0.9379999999999999</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>3.497</v>
+        <v>0.6929999999999999</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>10.903</v>
+        <v>0.87</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>14.966</v>
+        <v>2.749</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>9.704000000000001</v>
+        <v>1.106</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.059</v>
+        <v>0.51</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>1.672</v>
+        <v>0.063</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>158.575</v>
+        <v>20.094</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>30.182</v>
+        <v>4.803</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>10.064</v>
+        <v>2.372</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>19.331</v>
+        <v>3.891</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>9.888999999999999</v>
+        <v>1.034</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.87</v>
+        <v>0.249</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>17.102</v>
+        <v>1.98</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>8.888999999999999</v>
+        <v>1.154</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>8.15</v>
+        <v>0.674</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>9.673999999999999</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>12.058</v>
+        <v>3.129</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.072</v>
+        <v>2.866</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>28.934</v>
+        <v>3.128</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>5.407</v>
+        <v>0.446</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>12.581</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45043.51388888889</v>
+        <v>37499.01388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>5.654</v>
+        <v>6.456</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>3.745</v>
+        <v>4.066</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.4</v>
+        <v>0.018</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>12.516</v>
+        <v>10.157</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>9.132</v>
+        <v>9.076000000000001</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>4.328</v>
+        <v>4.638</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>19.479</v>
+        <v>13.117</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>6.981</v>
+        <v>5.702</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>2.808</v>
+        <v>2.778</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>3.898</v>
+        <v>5.178</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>4.934</v>
+        <v>4.209</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>5.327</v>
+        <v>4.179</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>1.455</v>
+        <v>1.339</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>4.512</v>
+        <v>3.629</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>6.2</v>
+        <v>6.247</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>4.24</v>
+        <v>3.163</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.36</v>
+        <v>0.416</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.705</v>
+        <v>0.062</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>61.371</v>
+        <v>55.166</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>12.791</v>
+        <v>11.392</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>4.164</v>
+        <v>4.151</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>8.090999999999999</v>
+        <v>7.891</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>4.121</v>
+        <v>3.733</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.213</v>
+        <v>0.543</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>9.545999999999999</v>
+        <v>6.661</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>3.678</v>
+        <v>3.281</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>3.483</v>
+        <v>2.615</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>4.107</v>
+        <v>3.179</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>5.007</v>
+        <v>5.45</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.198</v>
+        <v>1.133</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>18.384</v>
+        <v>11.012</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>2.154</v>
+        <v>1.881</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>5.208</v>
+        <v>4.423</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45043.52083333334</v>
+        <v>37499.02083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>8.552</v>
+        <v>6.983</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>6.135</v>
+        <v>4.802</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.041</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>18.823</v>
+        <v>12.699</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>14.722</v>
+        <v>10.976</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>6.646</v>
+        <v>5.271</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>25.444</v>
+        <v>18.164</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>10.471</v>
+        <v>7.073</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>4.464</v>
+        <v>3.36</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>6.464</v>
+        <v>5.625</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>7.508</v>
+        <v>5.227</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>8.042</v>
+        <v>5.272</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>2.172</v>
+        <v>1.575</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>6.767</v>
+        <v>4.558</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>9.460000000000001</v>
+        <v>7.294</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>5.976</v>
+        <v>3.861</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.93</v>
+        <v>0.341</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.582</v>
+        <v>0.091</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>95.65900000000001</v>
+        <v>66.795</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>18.876</v>
+        <v>13.633</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>6.247</v>
+        <v>4.734</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>12.366</v>
+        <v>9.321</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>6.476</v>
+        <v>4.621</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.298</v>
+        <v>0.641</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>12.413</v>
+        <v>9.08</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>5.517</v>
+        <v>3.945</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>5.026</v>
+        <v>3.268</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>5.91</v>
+        <v>3.912</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>7.782</v>
+        <v>6.15</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.746</v>
+        <v>0.716</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>23.209</v>
+        <v>16.119</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>3.397</v>
+        <v>2.368</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>7.809</v>
+        <v>5.412</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45043.52777777778</v>
+        <v>37499.02777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>16.73</v>
+        <v>10.146</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>12.38</v>
+        <v>7.319</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.11</v>
+        <v>0.203</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>36.59</v>
+        <v>20.238</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>29.61</v>
+        <v>17.098</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>13.1</v>
+        <v>7.843</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>48.87</v>
+        <v>28.079</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>20.36</v>
+        <v>11.252</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>8.970000000000001</v>
+        <v>5.201</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>13.22</v>
+        <v>8.204000000000001</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>14.66</v>
+        <v>8.242000000000001</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>15.6</v>
+        <v>8.486000000000001</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>4.23</v>
+        <v>2.417</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>13.16</v>
+        <v>7.279</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>18.66</v>
+        <v>11</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>11.19</v>
+        <v>6.082</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.78</v>
+        <v>0.317</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.73</v>
+        <v>0.199</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>192.96</v>
+        <v>106.923</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>36.74</v>
+        <v>20.968</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>12.15</v>
+        <v>7.107</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>24.58</v>
+        <v>14.253</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>12.9</v>
+        <v>7.295</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2.03</v>
+        <v>0.986</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>24.15</v>
+        <v>13.896</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>10.73</v>
+        <v>6.108</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>9.56</v>
+        <v>5.207</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>11.24</v>
+        <v>6.177</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>15.33</v>
+        <v>9.137</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.54</v>
+        <v>0.525</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>44.44</v>
+        <v>25.145</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>6.79</v>
+        <v>3.802</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>15.19</v>
+        <v>8.507</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>37499.03472222222</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>9.550000000000001</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>19.33</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>16.27</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>7.42</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>28.38</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>10.74</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>4.96</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>7.73</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>7.87</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>8.109999999999999</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>6.96</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>10.44</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>101.25</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>19.99</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>6.73</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>13.58</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>6.97</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>13.83</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>4.97</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>8.630000000000001</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>25.58</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>8.109999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_362.xlsx
+++ b/DATA_goal/Junction_Flooding_362.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,22 +448,22 @@
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
     <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
     <col width="9" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
@@ -471,11 +471,11 @@
     <col width="7" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>37499.00694444445</v>
+        <v>45043.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>5.237</v>
+        <v>13.798</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.607</v>
+        <v>9.137</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0</v>
+        <v>3.527</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>2.478</v>
+        <v>29.879</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>3.053</v>
+        <v>22.444</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>2.519</v>
+        <v>10.657</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>5.488</v>
+        <v>31.967</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.554</v>
+        <v>16.87</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.9409999999999999</v>
+        <v>6.742</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>4.022</v>
+        <v>10.011</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.069</v>
+        <v>11.733</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.9379999999999999</v>
+        <v>12.516</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.6929999999999999</v>
+        <v>3.497</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.87</v>
+        <v>10.903</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>2.749</v>
+        <v>14.966</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.106</v>
+        <v>9.704000000000001</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.51</v>
+        <v>3.059</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.063</v>
+        <v>1.672</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>20.094</v>
+        <v>158.575</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>4.803</v>
+        <v>30.182</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>2.372</v>
+        <v>10.064</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>3.891</v>
+        <v>19.331</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.034</v>
+        <v>9.888999999999999</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.249</v>
+        <v>2.87</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.98</v>
+        <v>17.102</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.154</v>
+        <v>8.888999999999999</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.674</v>
+        <v>8.15</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.673999999999999</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>3.129</v>
+        <v>12.058</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.866</v>
+        <v>3.072</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>3.128</v>
+        <v>28.934</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.446</v>
+        <v>5.407</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.43</v>
+        <v>12.581</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>37499.01388888889</v>
+        <v>45043.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>6.456</v>
+        <v>5.654</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>4.066</v>
+        <v>3.745</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.018</v>
+        <v>1.4</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>10.157</v>
+        <v>12.516</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>9.076000000000001</v>
+        <v>9.132</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>4.638</v>
+        <v>4.328</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>13.117</v>
+        <v>19.479</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>5.702</v>
+        <v>6.981</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>2.778</v>
+        <v>2.808</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>5.178</v>
+        <v>3.898</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>4.209</v>
+        <v>4.934</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>4.179</v>
+        <v>5.327</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>1.339</v>
+        <v>1.455</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>3.629</v>
+        <v>4.512</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>6.247</v>
+        <v>6.2</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>3.163</v>
+        <v>4.24</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.416</v>
+        <v>1.36</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.062</v>
+        <v>0.705</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>55.166</v>
+        <v>61.371</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>11.392</v>
+        <v>12.791</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>4.151</v>
+        <v>4.164</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>7.891</v>
+        <v>8.090999999999999</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>3.733</v>
+        <v>4.121</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.543</v>
+        <v>1.213</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>6.661</v>
+        <v>9.545999999999999</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>3.281</v>
+        <v>3.678</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>2.615</v>
+        <v>3.483</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>3.179</v>
+        <v>4.107</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>5.45</v>
+        <v>5.007</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.133</v>
+        <v>1.198</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>11.012</v>
+        <v>18.384</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>1.881</v>
+        <v>2.154</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>4.423</v>
+        <v>5.208</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>37499.02083333334</v>
+        <v>45043.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>6.983</v>
+        <v>8.552</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>4.802</v>
+        <v>6.135</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.06900000000000001</v>
+        <v>1.041</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>12.699</v>
+        <v>18.823</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>10.976</v>
+        <v>14.722</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>5.271</v>
+        <v>6.646</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>18.164</v>
+        <v>25.444</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>7.073</v>
+        <v>10.471</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>3.36</v>
+        <v>4.464</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>5.625</v>
+        <v>6.464</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>5.227</v>
+        <v>7.508</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>5.272</v>
+        <v>8.042</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>1.575</v>
+        <v>2.172</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>4.558</v>
+        <v>6.767</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>7.294</v>
+        <v>9.460000000000001</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>3.861</v>
+        <v>5.976</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.341</v>
+        <v>0.93</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.091</v>
+        <v>0.582</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>66.795</v>
+        <v>95.65900000000001</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>13.633</v>
+        <v>18.876</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>4.734</v>
+        <v>6.247</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>9.321</v>
+        <v>12.366</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>4.621</v>
+        <v>6.476</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.641</v>
+        <v>1.298</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>9.08</v>
+        <v>12.413</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>3.945</v>
+        <v>5.517</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>3.268</v>
+        <v>5.026</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>3.912</v>
+        <v>5.91</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>6.15</v>
+        <v>7.782</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.716</v>
+        <v>0.746</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>16.119</v>
+        <v>23.209</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>2.368</v>
+        <v>3.397</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>5.412</v>
+        <v>7.809</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>37499.02777777778</v>
+        <v>45043.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>10.146</v>
+        <v>16.73</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>7.319</v>
+        <v>12.38</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.203</v>
+        <v>1.11</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>20.238</v>
+        <v>36.59</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>17.098</v>
+        <v>29.61</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>7.843</v>
+        <v>13.1</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>28.079</v>
+        <v>48.87</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>11.252</v>
+        <v>20.36</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>5.201</v>
+        <v>8.970000000000001</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>8.204000000000001</v>
+        <v>13.22</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>8.242000000000001</v>
+        <v>14.66</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>8.486000000000001</v>
+        <v>15.6</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>2.417</v>
+        <v>4.23</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>7.279</v>
+        <v>13.16</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>11</v>
+        <v>18.66</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>6.082</v>
+        <v>11.19</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.317</v>
+        <v>0.78</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.199</v>
+        <v>0.73</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>106.923</v>
+        <v>192.96</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>20.968</v>
+        <v>36.74</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>7.107</v>
+        <v>12.15</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>14.253</v>
+        <v>24.58</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>7.295</v>
+        <v>12.9</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.986</v>
+        <v>2.03</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>13.896</v>
+        <v>24.15</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>6.108</v>
+        <v>10.73</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>5.207</v>
+        <v>9.56</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>6.177</v>
+        <v>11.24</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>9.137</v>
+        <v>15.33</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.525</v>
+        <v>0.54</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>25.145</v>
+        <v>44.44</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>3.802</v>
+        <v>6.79</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>8.507</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>37499.03472222222</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>9.550000000000001</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>6.95</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>19.33</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>16.27</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>7.42</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>28.38</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>10.74</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>4.96</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>7.73</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>7.87</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>8.109999999999999</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>6.96</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>10.44</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>101.25</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>19.99</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>6.73</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>13.58</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>6.97</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>13.83</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>5.81</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>4.97</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>8.630000000000001</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>25.58</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>3.63</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>8.109999999999999</v>
+        <v>15.19</v>
       </c>
     </row>
   </sheetData>
